--- a/ip (1).xlsx
+++ b/ip (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pinter.botond\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\Vizsgaremek doku\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B93BB825-303B-4A50-B09D-FCC3FFBE2CA3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6734C96B-FBD8-4E0A-9C73-3F13DA6B645F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7980" xr2:uid="{27E2F098-1C4B-4DFB-AB2D-113F77F11DED}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="109">
   <si>
     <t>IRODA</t>
   </si>
@@ -352,9 +352,6 @@
   </si>
   <si>
     <t>Line console 0</t>
-  </si>
-  <si>
-    <t>JAVÍTANI KELL!!!!!!!!!!!!!!!!!!!!!!!</t>
   </si>
 </sst>
 </file>
@@ -379,7 +376,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -389,12 +386,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -421,7 +412,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -845,8 +836,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E52B0AE4-89B0-4AC7-A2DF-EC79858E0618}">
   <dimension ref="B2:I93"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B28" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
+    <sheetView tabSelected="1" topLeftCell="B52" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="G103" sqref="G103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,12 +1230,8 @@
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="F42" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="G42" s="5" t="s">
-        <v>109</v>
-      </c>
+      <c r="F42" s="5"/>
+      <c r="G42" s="5"/>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C43" s="1" t="s">
